--- a/哈工大/通信/ALL.xlsx
+++ b/哈工大/通信/ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\App\Winform-UdpSever\哈工大\通信\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3852F649-FEF3-41A8-9345-686ED3D6ED44}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16C052A-6DD4-49DF-AED4-E15353D80E77}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>当前速度档位</t>
   </si>
   <si>
-    <t>高速，中速，低速，对接速度</t>
-  </si>
-  <si>
     <t>当前模式</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
   </si>
   <si>
     <t>当前分叉方向</t>
-  </si>
-  <si>
-    <t>左分叉：1，右分叉：2</t>
   </si>
   <si>
     <t>磁导航数据1</t>
@@ -346,14 +340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输送1，待命2，充电3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常0，机械碰撞1，出轨2，红外避障3，电量低4（位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运行1，待命2，避障3，充电4，没电5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,12 +347,28 @@
     <t>十位是动作，个位是位置[放舟1,接舟2][炉子实际编号]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>未就绪0,运行1，待命2，充电3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常0 机械碰撞1 出轨2 红外避障3 电量低4 驱动断电5 (位)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速，中速，低速，对接速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:左分 2:右分 11:前左分 12:前右分 21:后左分 22:后右分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +419,12 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -579,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -611,9 +619,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,11 +643,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,17 +661,20 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,20 +989,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="14" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="79" style="14" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="15" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="79" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="14" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="14" customWidth="1"/>
     <col min="9" max="9" width="34.875" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
@@ -1010,16 +1021,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>4</v>
@@ -1027,7 +1038,7 @@
     </row>
     <row r="2" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -1039,26 +1050,26 @@
       <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="20" t="s">
-        <v>60</v>
+      <c r="I3" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1066,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1080,14 +1091,14 @@
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1101,14 +1112,14 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1122,16 +1133,16 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1145,16 +1156,16 @@
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1168,18 +1179,18 @@
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="str">
+      <c r="A9" s="18" t="str">
         <f>[1]Sheet1!A9</f>
         <v>下一个位置</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="12" t="str">
         <f>[1]Sheet1!B9</f>
         <v>Position_next</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="17" t="str">
         <f>[1]Sheet1!C9</f>
         <v>Uint16</v>
       </c>
@@ -1194,295 +1205,9 @@
       <c r="F9" s="10">
         <v>7</v>
       </c>
-      <c r="G9" s="10">
-        <f>[1]Sheet1!G9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <f>[1]Sheet1!H9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="6">
-        <f>[1]Sheet1!J9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <f>[1]Sheet1!K9</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <f>[1]Sheet1!L9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <f>[1]Sheet1!M9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <f>[1]Sheet1!N9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <f>[1]Sheet1!O9</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <f>[1]Sheet1!P9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <f>[1]Sheet1!Q9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <f>[1]Sheet1!R9</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="6">
-        <f>[1]Sheet1!S9</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <f>[1]Sheet1!T9</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
-        <f>[1]Sheet1!U9</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <f>[1]Sheet1!V9</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <f>[1]Sheet1!W9</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
-        <f>[1]Sheet1!X9</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <f>[1]Sheet1!Y9</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <f>[1]Sheet1!Z9</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <f>[1]Sheet1!AA9</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
-        <f>[1]Sheet1!AB9</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="6">
-        <f>[1]Sheet1!AC9</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="6">
-        <f>[1]Sheet1!AD9</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="6">
-        <f>[1]Sheet1!AE9</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="6">
-        <f>[1]Sheet1!AF9</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="6">
-        <f>[1]Sheet1!AG9</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="6">
-        <f>[1]Sheet1!AH9</f>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="6">
-        <f>[1]Sheet1!AI9</f>
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="6">
-        <f>[1]Sheet1!AJ9</f>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="6">
-        <f>[1]Sheet1!AK9</f>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="6">
-        <f>[1]Sheet1!AL9</f>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="6">
-        <f>[1]Sheet1!AM9</f>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="6">
-        <f>[1]Sheet1!AN9</f>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="6">
-        <f>[1]Sheet1!AO9</f>
-        <v>0</v>
-      </c>
-      <c r="AP9" s="6">
-        <f>[1]Sheet1!AP9</f>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="6">
-        <f>[1]Sheet1!AQ9</f>
-        <v>0</v>
-      </c>
-      <c r="AR9" s="6">
-        <f>[1]Sheet1!AR9</f>
-        <v>0</v>
-      </c>
-      <c r="AS9" s="6">
-        <f>[1]Sheet1!AS9</f>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="6">
-        <f>[1]Sheet1!AT9</f>
-        <v>0</v>
-      </c>
-      <c r="AU9" s="6">
-        <f>[1]Sheet1!AU9</f>
-        <v>0</v>
-      </c>
-      <c r="AV9" s="6">
-        <f>[1]Sheet1!AV9</f>
-        <v>0</v>
-      </c>
-      <c r="AW9" s="6">
-        <f>[1]Sheet1!AW9</f>
-        <v>0</v>
-      </c>
-      <c r="AX9" s="6">
-        <f>[1]Sheet1!AX9</f>
-        <v>0</v>
-      </c>
-      <c r="AY9" s="6">
-        <f>[1]Sheet1!AY9</f>
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="6">
-        <f>[1]Sheet1!AZ9</f>
-        <v>0</v>
-      </c>
-      <c r="BA9" s="6">
-        <f>[1]Sheet1!BA9</f>
-        <v>0</v>
-      </c>
-      <c r="BB9" s="6">
-        <f>[1]Sheet1!BB9</f>
-        <v>0</v>
-      </c>
-      <c r="BC9" s="6">
-        <f>[1]Sheet1!BC9</f>
-        <v>0</v>
-      </c>
-      <c r="BD9" s="6">
-        <f>[1]Sheet1!BD9</f>
-        <v>0</v>
-      </c>
-      <c r="BE9" s="6">
-        <f>[1]Sheet1!BE9</f>
-        <v>0</v>
-      </c>
-      <c r="BF9" s="6">
-        <f>[1]Sheet1!BF9</f>
-        <v>0</v>
-      </c>
-      <c r="BG9" s="6">
-        <f>[1]Sheet1!BG9</f>
-        <v>0</v>
-      </c>
-      <c r="BH9" s="6">
-        <f>[1]Sheet1!BH9</f>
-        <v>0</v>
-      </c>
-      <c r="BI9" s="6">
-        <f>[1]Sheet1!BI9</f>
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="6">
-        <f>[1]Sheet1!BJ9</f>
-        <v>0</v>
-      </c>
-      <c r="BK9" s="6">
-        <f>[1]Sheet1!BK9</f>
-        <v>0</v>
-      </c>
-      <c r="BL9" s="6">
-        <f>[1]Sheet1!BL9</f>
-        <v>0</v>
-      </c>
-      <c r="BM9" s="6">
-        <f>[1]Sheet1!BM9</f>
-        <v>0</v>
-      </c>
-      <c r="BN9" s="6">
-        <f>[1]Sheet1!BN9</f>
-        <v>0</v>
-      </c>
-      <c r="BO9" s="6">
-        <f>[1]Sheet1!BO9</f>
-        <v>0</v>
-      </c>
-      <c r="BP9" s="6">
-        <f>[1]Sheet1!BP9</f>
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="6">
-        <f>[1]Sheet1!BQ9</f>
-        <v>0</v>
-      </c>
-      <c r="BR9" s="6">
-        <f>[1]Sheet1!BR9</f>
-        <v>0</v>
-      </c>
-      <c r="BS9" s="6">
-        <f>[1]Sheet1!BS9</f>
-        <v>0</v>
-      </c>
-      <c r="BT9" s="6">
-        <f>[1]Sheet1!BT9</f>
-        <v>0</v>
-      </c>
-      <c r="BU9" s="6">
-        <f>[1]Sheet1!BU9</f>
-        <v>0</v>
-      </c>
-      <c r="BV9" s="6">
-        <f>[1]Sheet1!BV9</f>
-        <v>0</v>
-      </c>
-      <c r="BW9" s="6">
-        <f>[1]Sheet1!BW9</f>
-        <v>0</v>
-      </c>
-      <c r="BX9" s="6">
-        <f>[1]Sheet1!BX9</f>
-        <v>0</v>
-      </c>
-      <c r="BY9" s="6">
-        <f>[1]Sheet1!BY9</f>
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="6">
-        <f>[1]Sheet1!BZ9</f>
-        <v>0</v>
-      </c>
-      <c r="CA9" s="6">
-        <f>[1]Sheet1!CA9</f>
-        <v>0</v>
-      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="25"/>
       <c r="CB9" s="6">
         <f>[1]Sheet1!CB9</f>
         <v>0</v>
@@ -66705,19 +66430,19 @@
       </c>
     </row>
     <row r="10" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="28" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="10">
@@ -66725,20 +66450,20 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="29" t="s">
         <v>104</v>
       </c>
       <c r="F11" s="10">
@@ -66746,11 +66471,11 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="21"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -66763,19 +66488,19 @@
     </row>
     <row r="13" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="12">
+        <v>99</v>
+      </c>
+      <c r="F13" s="11">
         <v>20</v>
       </c>
       <c r="G13" s="10">
@@ -66784,23 +66509,23 @@
       <c r="H13" s="10">
         <v>50</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>60</v>
+      <c r="I13" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>21</v>
       </c>
       <c r="G14" s="10">
@@ -66809,21 +66534,21 @@
       <c r="H14" s="10">
         <v>51</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>22</v>
       </c>
       <c r="G15" s="10">
@@ -66832,21 +66557,21 @@
       <c r="H15" s="10">
         <v>52</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:16384" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>23</v>
       </c>
       <c r="G16" s="10">
@@ -66855,21 +66580,21 @@
       <c r="H16" s="10">
         <v>53</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>24</v>
       </c>
       <c r="G17" s="10">
@@ -66878,21 +66603,21 @@
       <c r="H17" s="10">
         <v>54</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>25</v>
       </c>
       <c r="G18" s="10">
@@ -66901,21 +66626,21 @@
       <c r="H18" s="10">
         <v>55</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>26</v>
       </c>
       <c r="G19" s="10">
@@ -66924,21 +66649,21 @@
       <c r="H19" s="10">
         <v>56</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>27</v>
       </c>
       <c r="G20" s="10">
@@ -66947,21 +66672,21 @@
       <c r="H20" s="10">
         <v>57</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>28</v>
       </c>
       <c r="G21" s="10">
@@ -66970,21 +66695,21 @@
       <c r="H21" s="10">
         <v>58</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>29</v>
       </c>
       <c r="G22" s="10">
@@ -66993,21 +66718,21 @@
       <c r="H22" s="10">
         <v>59</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>30</v>
       </c>
       <c r="G23" s="10">
@@ -67016,23 +66741,23 @@
       <c r="H23" s="10">
         <v>60</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="12">
+        <v>100</v>
+      </c>
+      <c r="F24" s="11">
         <v>31</v>
       </c>
       <c r="G24" s="10">
@@ -67041,21 +66766,21 @@
       <c r="H24" s="10">
         <v>61</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>32</v>
       </c>
       <c r="G25" s="10">
@@ -67064,21 +66789,21 @@
       <c r="H25" s="10">
         <v>62</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>33</v>
       </c>
       <c r="G26" s="10">
@@ -67087,21 +66812,21 @@
       <c r="H26" s="10">
         <v>63</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>34</v>
       </c>
       <c r="G27" s="10">
@@ -67110,21 +66835,21 @@
       <c r="H27" s="10">
         <v>64</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>35</v>
       </c>
       <c r="G28" s="10">
@@ -67133,21 +66858,21 @@
       <c r="H28" s="10">
         <v>65</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="9"/>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>36</v>
       </c>
       <c r="G29" s="10">
@@ -67156,21 +66881,21 @@
       <c r="H29" s="10">
         <v>66</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>37</v>
       </c>
       <c r="G30" s="10">
@@ -67179,21 +66904,21 @@
       <c r="H30" s="10">
         <v>67</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>38</v>
       </c>
       <c r="G31" s="10">
@@ -67202,21 +66927,21 @@
       <c r="H31" s="10">
         <v>68</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E32" s="9"/>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>39</v>
       </c>
       <c r="G32" s="10">
@@ -67225,21 +66950,21 @@
       <c r="H32" s="10">
         <v>69</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3"/>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>40</v>
       </c>
       <c r="G33" s="10">
@@ -67248,21 +66973,21 @@
       <c r="H33" s="10">
         <v>70</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>41</v>
       </c>
       <c r="G34" s="10">
@@ -67271,11 +66996,11 @@
       <c r="H34" s="10">
         <v>71</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -67297,15 +67022,15 @@
       <c r="D36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>51</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="26" t="s">
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -67320,15 +67045,15 @@
       <c r="D37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>52</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="27"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -67341,15 +67066,15 @@
       <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>53</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="27"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -67362,15 +67087,15 @@
       <c r="D39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>54</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="27"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -67383,19 +67108,19 @@
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="13">
+      <c r="E40" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="12">
         <v>55</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="27"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
@@ -67404,19 +67129,19 @@
       <c r="D41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="E41" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="12">
         <v>56</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="27"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="20"/>
     </row>
     <row r="42" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
@@ -67425,19 +67150,19 @@
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="13">
+      <c r="E42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="12">
         <v>57</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="27"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
@@ -67446,19 +67171,19 @@
       <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="13">
+      <c r="E43" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="12">
         <v>58</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="27"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
@@ -67467,19 +67192,19 @@
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="13">
+      <c r="E44" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="12">
         <v>59</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="27"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="20"/>
     </row>
     <row r="45" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
@@ -67488,19 +67213,19 @@
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="13">
+      <c r="E45" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="12">
         <v>60</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="27"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="20"/>
     </row>
     <row r="46" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
@@ -67509,19 +67234,19 @@
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="13">
+      <c r="E46" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="12">
         <v>61</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="27"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="20"/>
     </row>
     <row r="47" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
@@ -67530,19 +67255,19 @@
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="13">
+      <c r="E47" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="12">
         <v>62</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="27"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="20"/>
     </row>
     <row r="48" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
@@ -67551,19 +67276,19 @@
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="13">
+      <c r="E48" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="12">
         <v>63</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="27"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
@@ -67572,19 +67297,19 @@
       <c r="D49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="13">
+      <c r="E49" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="12">
         <v>64</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="27"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="20"/>
     </row>
     <row r="50" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
@@ -67593,19 +67318,19 @@
       <c r="D50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E50" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="12">
         <v>65</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="28"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -67618,307 +67343,307 @@
     </row>
     <row r="52" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12">
+        <v>1</v>
+      </c>
+      <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13">
-        <v>1</v>
-      </c>
-      <c r="H53" s="13">
-        <v>1</v>
-      </c>
-      <c r="I53" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12">
+        <v>2</v>
+      </c>
+      <c r="H53" s="12">
+        <v>2</v>
+      </c>
+      <c r="I53" s="20"/>
     </row>
     <row r="54" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13">
-        <v>2</v>
-      </c>
-      <c r="H54" s="13">
-        <v>2</v>
-      </c>
-      <c r="I54" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12">
+        <v>3</v>
+      </c>
+      <c r="H54" s="12">
+        <v>3</v>
+      </c>
+      <c r="I54" s="20"/>
     </row>
     <row r="55" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13">
-        <v>3</v>
-      </c>
-      <c r="H55" s="13">
-        <v>3</v>
-      </c>
-      <c r="I55" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12">
+        <v>4</v>
+      </c>
+      <c r="H55" s="12">
+        <v>4</v>
+      </c>
+      <c r="I55" s="20"/>
     </row>
     <row r="56" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13">
-        <v>4</v>
-      </c>
-      <c r="H56" s="13">
-        <v>4</v>
-      </c>
-      <c r="I56" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12">
+        <v>5</v>
+      </c>
+      <c r="H56" s="12">
+        <v>5</v>
+      </c>
+      <c r="I56" s="20"/>
     </row>
     <row r="57" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13">
-        <v>5</v>
-      </c>
-      <c r="H57" s="13">
-        <v>5</v>
-      </c>
-      <c r="I57" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12">
+        <v>6</v>
+      </c>
+      <c r="H57" s="12">
+        <v>6</v>
+      </c>
+      <c r="I57" s="20"/>
     </row>
     <row r="58" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13">
-        <v>6</v>
-      </c>
-      <c r="H58" s="13">
-        <v>6</v>
-      </c>
-      <c r="I58" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12">
+        <v>7</v>
+      </c>
+      <c r="H58" s="12">
+        <v>7</v>
+      </c>
+      <c r="I58" s="20"/>
     </row>
     <row r="59" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13">
-        <v>7</v>
-      </c>
-      <c r="H59" s="13">
-        <v>7</v>
-      </c>
-      <c r="I59" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12">
+        <v>8</v>
+      </c>
+      <c r="H59" s="12">
+        <v>8</v>
+      </c>
+      <c r="I59" s="20"/>
     </row>
     <row r="60" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13">
-        <v>8</v>
-      </c>
-      <c r="H60" s="13">
-        <v>8</v>
-      </c>
-      <c r="I60" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12">
+        <v>9</v>
+      </c>
+      <c r="H60" s="12">
+        <v>9</v>
+      </c>
+      <c r="I60" s="20"/>
     </row>
     <row r="61" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13">
-        <v>9</v>
-      </c>
-      <c r="H61" s="13">
-        <v>9</v>
-      </c>
-      <c r="I61" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12">
+        <v>10</v>
+      </c>
+      <c r="H61" s="12">
+        <v>10</v>
+      </c>
+      <c r="I61" s="20"/>
     </row>
     <row r="62" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13">
-        <v>10</v>
-      </c>
-      <c r="H62" s="13">
-        <v>10</v>
-      </c>
-      <c r="I62" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12">
+        <v>11</v>
+      </c>
+      <c r="H62" s="12">
+        <v>11</v>
+      </c>
+      <c r="I62" s="20"/>
     </row>
     <row r="63" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13">
-        <v>11</v>
-      </c>
-      <c r="H63" s="13">
-        <v>11</v>
-      </c>
-      <c r="I63" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12">
+        <v>12</v>
+      </c>
+      <c r="H63" s="12">
+        <v>12</v>
+      </c>
+      <c r="I63" s="20"/>
     </row>
     <row r="64" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>14</v>
@@ -67927,25 +67652,23 @@
         <v>6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" s="13">
-        <v>5</v>
-      </c>
-      <c r="G64" s="13">
-        <v>12</v>
-      </c>
-      <c r="H64" s="13">
-        <v>12</v>
-      </c>
-      <c r="I64" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12">
+        <v>13</v>
+      </c>
+      <c r="H64" s="12">
+        <v>13</v>
+      </c>
+      <c r="I64" s="20"/>
     </row>
     <row r="65" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>17</v>
@@ -67954,52 +67677,48 @@
         <v>6</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" s="13">
-        <v>6</v>
-      </c>
-      <c r="G65" s="13">
-        <v>13</v>
-      </c>
-      <c r="H65" s="13">
-        <v>13</v>
-      </c>
-      <c r="I65" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12">
+        <v>14</v>
+      </c>
+      <c r="H65" s="12">
+        <v>14</v>
+      </c>
+      <c r="I65" s="20"/>
     </row>
     <row r="66" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" s="13">
-        <v>7</v>
-      </c>
-      <c r="G66" s="13">
-        <v>14</v>
-      </c>
-      <c r="H66" s="13">
-        <v>14</v>
-      </c>
-      <c r="I66" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12">
+        <v>15</v>
+      </c>
+      <c r="H66" s="12">
+        <v>15</v>
+      </c>
+      <c r="I66" s="21"/>
     </row>
     <row r="67" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -68012,307 +67731,307 @@
     </row>
     <row r="68" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13">
-        <v>20</v>
-      </c>
-      <c r="H68" s="13">
-        <v>20</v>
-      </c>
-      <c r="I68" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12">
+        <v>21</v>
+      </c>
+      <c r="H68" s="12">
+        <v>21</v>
+      </c>
+      <c r="I68" s="19"/>
     </row>
     <row r="69" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13">
-        <v>21</v>
-      </c>
-      <c r="H69" s="13">
-        <v>21</v>
-      </c>
-      <c r="I69" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12">
+        <v>22</v>
+      </c>
+      <c r="H69" s="12">
+        <v>22</v>
+      </c>
+      <c r="I69" s="20"/>
     </row>
     <row r="70" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13">
-        <v>22</v>
-      </c>
-      <c r="H70" s="13">
-        <v>22</v>
-      </c>
-      <c r="I70" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12">
+        <v>23</v>
+      </c>
+      <c r="H70" s="12">
+        <v>23</v>
+      </c>
+      <c r="I70" s="20"/>
     </row>
     <row r="71" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13">
-        <v>23</v>
-      </c>
-      <c r="H71" s="13">
-        <v>23</v>
-      </c>
-      <c r="I71" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12">
+        <v>24</v>
+      </c>
+      <c r="H71" s="12">
+        <v>24</v>
+      </c>
+      <c r="I71" s="20"/>
     </row>
     <row r="72" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13">
-        <v>24</v>
-      </c>
-      <c r="H72" s="13">
-        <v>24</v>
-      </c>
-      <c r="I72" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12">
+        <v>25</v>
+      </c>
+      <c r="H72" s="12">
+        <v>25</v>
+      </c>
+      <c r="I72" s="20"/>
     </row>
     <row r="73" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13">
-        <v>25</v>
-      </c>
-      <c r="H73" s="13">
-        <v>25</v>
-      </c>
-      <c r="I73" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12">
+        <v>26</v>
+      </c>
+      <c r="H73" s="12">
+        <v>26</v>
+      </c>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13">
-        <v>26</v>
-      </c>
-      <c r="H74" s="13">
-        <v>26</v>
-      </c>
-      <c r="I74" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12">
+        <v>27</v>
+      </c>
+      <c r="H74" s="12">
+        <v>27</v>
+      </c>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13">
-        <v>27</v>
-      </c>
-      <c r="H75" s="13">
-        <v>27</v>
-      </c>
-      <c r="I75" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12">
+        <v>28</v>
+      </c>
+      <c r="H75" s="12">
+        <v>28</v>
+      </c>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13">
-        <v>28</v>
-      </c>
-      <c r="H76" s="13">
-        <v>28</v>
-      </c>
-      <c r="I76" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12">
+        <v>29</v>
+      </c>
+      <c r="H76" s="12">
+        <v>29</v>
+      </c>
+      <c r="I76" s="20"/>
     </row>
     <row r="77" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13">
-        <v>29</v>
-      </c>
-      <c r="H77" s="13">
-        <v>29</v>
-      </c>
-      <c r="I77" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12">
+        <v>30</v>
+      </c>
+      <c r="H77" s="12">
+        <v>30</v>
+      </c>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13">
-        <v>30</v>
-      </c>
-      <c r="H78" s="13">
-        <v>30</v>
-      </c>
-      <c r="I78" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12">
+        <v>31</v>
+      </c>
+      <c r="H78" s="12">
+        <v>31</v>
+      </c>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13">
-        <v>31</v>
-      </c>
-      <c r="H79" s="13">
-        <v>31</v>
-      </c>
-      <c r="I79" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12">
+        <v>32</v>
+      </c>
+      <c r="H79" s="12">
+        <v>32</v>
+      </c>
+      <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>14</v>
@@ -68321,25 +68040,23 @@
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F80" s="13">
-        <v>5</v>
-      </c>
-      <c r="G80" s="13">
-        <v>32</v>
-      </c>
-      <c r="H80" s="13">
-        <v>32</v>
-      </c>
-      <c r="I80" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12">
+        <v>33</v>
+      </c>
+      <c r="H80" s="12">
+        <v>33</v>
+      </c>
+      <c r="I80" s="20"/>
     </row>
     <row r="81" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>17</v>
@@ -68348,61 +68065,57 @@
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F81" s="13">
-        <v>6</v>
-      </c>
-      <c r="G81" s="13">
-        <v>33</v>
-      </c>
-      <c r="H81" s="13">
-        <v>33</v>
-      </c>
-      <c r="I81" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12">
+        <v>34</v>
+      </c>
+      <c r="H81" s="12">
+        <v>34</v>
+      </c>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F82" s="13">
-        <v>7</v>
-      </c>
-      <c r="G82" s="13">
-        <v>34</v>
-      </c>
-      <c r="H82" s="13">
-        <v>34</v>
-      </c>
-      <c r="I82" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12">
+        <v>35</v>
+      </c>
+      <c r="H82" s="12">
+        <v>35</v>
+      </c>
+      <c r="I82" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I3:I11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="I13:I34"/>
     <mergeCell ref="I52:I66"/>
     <mergeCell ref="I68:I82"/>
     <mergeCell ref="A51:I51"/>
     <mergeCell ref="A67:I67"/>
     <mergeCell ref="I36:I50"/>
-    <mergeCell ref="I3:I11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="I13:I34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
